--- a/Scripts_LTS/01_Script/Templates/TEMPLATE_SWQT_PRODUCTNAME_OEM_PROJECTID.xlsx
+++ b/Scripts_LTS/01_Script/Templates/TEMPLATE_SWQT_PRODUCTNAME_OEM_PROJECTID.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://capgemini-my.sharepoint.com/personal/francois_glenard_capgemini_com/Documents/Documents/01 - Missions/03 - Plastic Omnium/WP1/Process/SWE4, 5, 6/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://capgemini.sharepoint.com/sites/POSoftwareHouseDelivery/Shared Documents/General/9- WP1 (Agile, Process and Toolchain)/2 - Process delivery/22 - SWE4,5,6 tests/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EEB1C1E3-A6F7-497E-B3E0-7645D6CD935A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="392" documentId="8_{E92791FC-9B37-462B-ADAD-CA815C53C5BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2C8AE30B-AE0F-41F1-8712-359825AEF3F6}"/>
   <bookViews>
-    <workbookView xWindow="-13875" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{CCE3464C-EF48-4DDF-8654-2A5A42A97AB4}"/>
+    <workbookView xWindow="-13875" yWindow="-16320" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{CCE3464C-EF48-4DDF-8654-2A5A42A97AB4}"/>
   </bookViews>
   <sheets>
     <sheet name="1st Page" sheetId="2" r:id="rId1"/>
@@ -302,9 +302,6 @@
     <t>Requirement coverage</t>
   </si>
   <si>
-    <t>Indicate the ID of the requirement frome the Software Requirement Spcification that are verified by the test case</t>
-  </si>
-  <si>
     <t>Test execution method</t>
   </si>
   <si>
@@ -333,13 +330,16 @@
     <t>Software Quality Engineer</t>
   </si>
   <si>
-    <t>Fill all the fields with the required information according to the Software Qualification Test Strategy</t>
-  </si>
-  <si>
     <t>Yes/No</t>
   </si>
   <si>
     <t>Cybersecurity</t>
+  </si>
+  <si>
+    <t>Indicate the ID of the requirement from the Software Requirement Spcification that are verified by the test case</t>
+  </si>
+  <si>
+    <t>Fill all the fields with the required information according to the Software V&amp;V Strategy</t>
   </si>
 </sst>
 </file>
@@ -1200,6 +1200,27 @@
     <xf numFmtId="0" fontId="17" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1305,6 +1326,12 @@
     <xf numFmtId="0" fontId="16" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1338,11 +1365,14 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1353,8 +1383,23 @@
     <xf numFmtId="0" fontId="19" fillId="14" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1362,29 +1407,11 @@
     <xf numFmtId="0" fontId="17" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1392,58 +1419,31 @@
     <xf numFmtId="0" fontId="18" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1451,35 +1451,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{C0632250-5D3C-4D96-AEAC-A30523B77F04}"/>
   </cellStyles>
-  <dxfs count="12">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="8">
     <dxf>
       <fill>
         <patternFill>
@@ -1798,7 +1770,33 @@
       <sheetData sheetId="2"/>
       <sheetData sheetId="3"/>
       <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
+      <sheetData sheetId="5">
+        <row r="2">
+          <cell r="H2" t="str">
+            <v>Under review</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="H3" t="str">
+            <v>Revise</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="H4" t="str">
+            <v>Re-Review</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="H5" t="str">
+            <v>Accept As Is</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="H6" t="str">
+            <v>Abnormal Termination</v>
+          </cell>
+        </row>
+      </sheetData>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2103,7 +2101,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DE880AD-A462-4F4F-AE3D-0D7BC6943005}">
   <dimension ref="B1:H37"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
@@ -2120,13 +2118,13 @@
   <sheetData>
     <row r="1" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:8" ht="70.900000000000006" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="48" t="s">
+      <c r="B2" s="55" t="s">
         <v>66</v>
       </c>
-      <c r="C2" s="49"/>
-      <c r="D2" s="49"/>
-      <c r="E2" s="49"/>
-      <c r="F2" s="50"/>
+      <c r="C2" s="56"/>
+      <c r="D2" s="56"/>
+      <c r="E2" s="56"/>
+      <c r="F2" s="57"/>
     </row>
     <row r="3" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="2"/>
@@ -2136,46 +2134,46 @@
       <c r="F3" s="2"/>
     </row>
     <row r="4" spans="2:8" ht="21" x14ac:dyDescent="0.35">
-      <c r="B4" s="51" t="s">
+      <c r="B4" s="58" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="52"/>
-      <c r="D4" s="53" t="s">
+      <c r="C4" s="59"/>
+      <c r="D4" s="60" t="s">
         <v>1</v>
       </c>
-      <c r="E4" s="54"/>
-      <c r="F4" s="55"/>
+      <c r="E4" s="61"/>
+      <c r="F4" s="62"/>
     </row>
     <row r="5" spans="2:8" ht="21" x14ac:dyDescent="0.35">
-      <c r="B5" s="56" t="s">
+      <c r="B5" s="63" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="57"/>
-      <c r="D5" s="58"/>
-      <c r="E5" s="59"/>
-      <c r="F5" s="60"/>
+      <c r="C5" s="64"/>
+      <c r="D5" s="65"/>
+      <c r="E5" s="66"/>
+      <c r="F5" s="67"/>
     </row>
     <row r="6" spans="2:8" ht="21" x14ac:dyDescent="0.35">
-      <c r="B6" s="56" t="s">
+      <c r="B6" s="63" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="57"/>
-      <c r="D6" s="61" t="s">
+      <c r="C6" s="64"/>
+      <c r="D6" s="68" t="s">
         <v>4</v>
       </c>
-      <c r="E6" s="61"/>
-      <c r="F6" s="62"/>
+      <c r="E6" s="68"/>
+      <c r="F6" s="69"/>
     </row>
     <row r="7" spans="2:8" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B7" s="44" t="s">
+      <c r="B7" s="51" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="45"/>
-      <c r="D7" s="46" t="s">
+      <c r="C7" s="52"/>
+      <c r="D7" s="53" t="s">
         <v>4</v>
       </c>
-      <c r="E7" s="46"/>
-      <c r="F7" s="47"/>
+      <c r="E7" s="53"/>
+      <c r="F7" s="54"/>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B8" s="2"/>
@@ -2372,57 +2370,57 @@
     </row>
     <row r="31" spans="2:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="32" spans="2:6" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B32" s="72" t="s">
+      <c r="B32" s="79" t="s">
         <v>16</v>
       </c>
-      <c r="C32" s="73"/>
-      <c r="D32" s="73"/>
-      <c r="E32" s="73"/>
-      <c r="F32" s="74"/>
+      <c r="C32" s="80"/>
+      <c r="D32" s="80"/>
+      <c r="E32" s="80"/>
+      <c r="F32" s="81"/>
     </row>
     <row r="33" spans="2:6" ht="18.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B33" s="75" t="s">
+      <c r="B33" s="82" t="s">
         <v>17</v>
       </c>
-      <c r="C33" s="76"/>
-      <c r="D33" s="76"/>
-      <c r="E33" s="77"/>
+      <c r="C33" s="83"/>
+      <c r="D33" s="83"/>
+      <c r="E33" s="84"/>
       <c r="F33" s="21" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="34" spans="2:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B34" s="78" t="s">
+      <c r="B34" s="85" t="s">
+        <v>83</v>
+      </c>
+      <c r="C34" s="86"/>
+      <c r="D34" s="86"/>
+      <c r="E34" s="87"/>
+      <c r="F34" s="20"/>
+    </row>
+    <row r="35" spans="2:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B35" s="70" t="s">
         <v>84</v>
       </c>
-      <c r="C34" s="79"/>
-      <c r="D34" s="79"/>
-      <c r="E34" s="80"/>
-      <c r="F34" s="20"/>
-    </row>
-    <row r="35" spans="2:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B35" s="63" t="s">
+      <c r="C35" s="71"/>
+      <c r="D35" s="71"/>
+      <c r="E35" s="72"/>
+      <c r="F35" s="19"/>
+    </row>
+    <row r="36" spans="2:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B36" s="73" t="s">
         <v>85</v>
       </c>
-      <c r="C35" s="64"/>
-      <c r="D35" s="64"/>
-      <c r="E35" s="65"/>
-      <c r="F35" s="19"/>
-    </row>
-    <row r="36" spans="2:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B36" s="66" t="s">
-        <v>86</v>
-      </c>
-      <c r="C36" s="67"/>
-      <c r="D36" s="67"/>
-      <c r="E36" s="68"/>
+      <c r="C36" s="74"/>
+      <c r="D36" s="74"/>
+      <c r="E36" s="75"/>
       <c r="F36" s="19"/>
     </row>
     <row r="37" spans="2:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B37" s="69"/>
-      <c r="C37" s="70"/>
-      <c r="D37" s="70"/>
-      <c r="E37" s="71"/>
+      <c r="B37" s="76"/>
+      <c r="C37" s="77"/>
+      <c r="D37" s="77"/>
+      <c r="E37" s="78"/>
       <c r="F37" s="19"/>
     </row>
   </sheetData>
@@ -2455,8 +2453,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47D53171-CC14-45F3-9C2B-03CCCDC13019}">
   <dimension ref="A1:L8"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="N6" sqref="N6"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5:I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2467,84 +2465,84 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="83"/>
-      <c r="B1" s="83"/>
-      <c r="C1" s="84" t="s">
+      <c r="A1" s="92"/>
+      <c r="B1" s="92"/>
+      <c r="C1" s="93" t="s">
         <v>19</v>
       </c>
-      <c r="D1" s="84"/>
-      <c r="E1" s="84"/>
-      <c r="F1" s="84"/>
-      <c r="G1" s="84"/>
-      <c r="H1" s="84"/>
-      <c r="I1" s="84"/>
+      <c r="D1" s="93"/>
+      <c r="E1" s="93"/>
+      <c r="F1" s="93"/>
+      <c r="G1" s="93"/>
+      <c r="H1" s="93"/>
+      <c r="I1" s="93"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="83"/>
-      <c r="B2" s="83"/>
-      <c r="C2" s="85" t="s">
+      <c r="A2" s="92"/>
+      <c r="B2" s="92"/>
+      <c r="C2" s="94" t="s">
         <v>20</v>
       </c>
-      <c r="D2" s="86"/>
-      <c r="E2" s="87"/>
+      <c r="D2" s="95"/>
+      <c r="E2" s="96"/>
       <c r="F2" s="22"/>
       <c r="G2" s="23"/>
       <c r="H2" s="24"/>
       <c r="I2" s="25"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="83"/>
-      <c r="B3" s="83"/>
-      <c r="C3" s="88"/>
-      <c r="D3" s="89"/>
-      <c r="E3" s="90"/>
+      <c r="A3" s="92"/>
+      <c r="B3" s="92"/>
+      <c r="C3" s="97"/>
+      <c r="D3" s="98"/>
+      <c r="E3" s="99"/>
       <c r="F3" s="26"/>
       <c r="G3" s="23"/>
       <c r="H3" s="27"/>
       <c r="I3" s="28"/>
     </row>
     <row r="4" spans="1:12" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="83"/>
-      <c r="B4" s="83"/>
-      <c r="C4" s="91"/>
-      <c r="D4" s="92"/>
-      <c r="E4" s="93"/>
+      <c r="A4" s="92"/>
+      <c r="B4" s="92"/>
+      <c r="C4" s="100"/>
+      <c r="D4" s="101"/>
+      <c r="E4" s="102"/>
       <c r="F4" s="29"/>
       <c r="G4" s="30"/>
       <c r="H4" s="31"/>
       <c r="I4" s="32"/>
     </row>
     <row r="5" spans="1:12" ht="135" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="81" t="s">
+      <c r="A5" s="88" t="s">
         <v>55</v>
       </c>
-      <c r="B5" s="82"/>
-      <c r="C5" s="94" t="s">
-        <v>87</v>
-      </c>
-      <c r="D5" s="95"/>
-      <c r="E5" s="95"/>
-      <c r="F5" s="95"/>
-      <c r="G5" s="95"/>
-      <c r="H5" s="95"/>
-      <c r="I5" s="95"/>
+      <c r="B5" s="89"/>
+      <c r="C5" s="90" t="s">
+        <v>89</v>
+      </c>
+      <c r="D5" s="91"/>
+      <c r="E5" s="91"/>
+      <c r="F5" s="91"/>
+      <c r="G5" s="91"/>
+      <c r="H5" s="91"/>
+      <c r="I5" s="91"/>
       <c r="K5" s="33"/>
       <c r="L5" s="34"/>
     </row>
     <row r="6" spans="1:12" ht="211.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="81" t="s">
-        <v>81</v>
-      </c>
-      <c r="B6" s="82"/>
-      <c r="C6" s="94" t="s">
-        <v>83</v>
-      </c>
-      <c r="D6" s="95"/>
-      <c r="E6" s="95"/>
-      <c r="F6" s="95"/>
-      <c r="G6" s="95"/>
-      <c r="H6" s="95"/>
-      <c r="I6" s="95"/>
+      <c r="A6" s="88" t="s">
+        <v>80</v>
+      </c>
+      <c r="B6" s="89"/>
+      <c r="C6" s="90" t="s">
+        <v>82</v>
+      </c>
+      <c r="D6" s="91"/>
+      <c r="E6" s="91"/>
+      <c r="F6" s="91"/>
+      <c r="G6" s="91"/>
+      <c r="H6" s="91"/>
+      <c r="I6" s="91"/>
       <c r="K6" s="33"/>
       <c r="L6" s="34"/>
     </row>
@@ -2567,13 +2565,13 @@
     </row>
   </sheetData>
   <mergeCells count="7">
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:I6"/>
     <mergeCell ref="A1:B4"/>
     <mergeCell ref="C1:I1"/>
     <mergeCell ref="C2:E4"/>
     <mergeCell ref="A5:B5"/>
     <mergeCell ref="C5:I5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:I6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2586,227 +2584,227 @@
   <dimension ref="B1:O13"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9:O9"/>
+      <selection activeCell="B13" sqref="B13:O13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="96" t="s">
+      <c r="B2" s="106" t="s">
         <v>56</v>
       </c>
-      <c r="C2" s="97"/>
-      <c r="D2" s="97"/>
-      <c r="E2" s="97"/>
-      <c r="F2" s="97"/>
-      <c r="G2" s="97"/>
-      <c r="H2" s="97"/>
-      <c r="I2" s="97"/>
-      <c r="J2" s="97"/>
-      <c r="K2" s="97"/>
-      <c r="L2" s="97"/>
-      <c r="M2" s="97"/>
-      <c r="N2" s="97"/>
-      <c r="O2" s="98"/>
+      <c r="C2" s="107"/>
+      <c r="D2" s="107"/>
+      <c r="E2" s="107"/>
+      <c r="F2" s="107"/>
+      <c r="G2" s="107"/>
+      <c r="H2" s="107"/>
+      <c r="I2" s="107"/>
+      <c r="J2" s="107"/>
+      <c r="K2" s="107"/>
+      <c r="L2" s="107"/>
+      <c r="M2" s="107"/>
+      <c r="N2" s="107"/>
+      <c r="O2" s="108"/>
     </row>
     <row r="3" spans="2:15" ht="145.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="104" t="s">
+      <c r="B3" s="109" t="s">
         <v>57</v>
       </c>
-      <c r="C3" s="105"/>
-      <c r="D3" s="105"/>
-      <c r="E3" s="105"/>
-      <c r="F3" s="105"/>
-      <c r="G3" s="105"/>
-      <c r="H3" s="105"/>
-      <c r="I3" s="105"/>
-      <c r="J3" s="105"/>
-      <c r="K3" s="105"/>
-      <c r="L3" s="105"/>
-      <c r="M3" s="105"/>
-      <c r="N3" s="105"/>
-      <c r="O3" s="106"/>
+      <c r="C3" s="110"/>
+      <c r="D3" s="110"/>
+      <c r="E3" s="110"/>
+      <c r="F3" s="110"/>
+      <c r="G3" s="110"/>
+      <c r="H3" s="110"/>
+      <c r="I3" s="110"/>
+      <c r="J3" s="110"/>
+      <c r="K3" s="110"/>
+      <c r="L3" s="110"/>
+      <c r="M3" s="110"/>
+      <c r="N3" s="110"/>
+      <c r="O3" s="111"/>
     </row>
     <row r="4" spans="2:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="96" t="s">
+      <c r="B4" s="106" t="s">
         <v>58</v>
       </c>
-      <c r="C4" s="97"/>
-      <c r="D4" s="97"/>
-      <c r="E4" s="97"/>
-      <c r="F4" s="97"/>
-      <c r="G4" s="97"/>
-      <c r="H4" s="97"/>
-      <c r="I4" s="97"/>
-      <c r="J4" s="97"/>
-      <c r="K4" s="97"/>
-      <c r="L4" s="97"/>
-      <c r="M4" s="97"/>
-      <c r="N4" s="97"/>
-      <c r="O4" s="98"/>
+      <c r="C4" s="107"/>
+      <c r="D4" s="107"/>
+      <c r="E4" s="107"/>
+      <c r="F4" s="107"/>
+      <c r="G4" s="107"/>
+      <c r="H4" s="107"/>
+      <c r="I4" s="107"/>
+      <c r="J4" s="107"/>
+      <c r="K4" s="107"/>
+      <c r="L4" s="107"/>
+      <c r="M4" s="107"/>
+      <c r="N4" s="107"/>
+      <c r="O4" s="108"/>
     </row>
     <row r="5" spans="2:15" ht="145.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="99" t="s">
+      <c r="B5" s="103" t="s">
         <v>65</v>
       </c>
-      <c r="C5" s="102"/>
-      <c r="D5" s="102"/>
-      <c r="E5" s="102"/>
-      <c r="F5" s="102"/>
-      <c r="G5" s="102"/>
-      <c r="H5" s="102"/>
-      <c r="I5" s="102"/>
-      <c r="J5" s="102"/>
-      <c r="K5" s="102"/>
-      <c r="L5" s="102"/>
-      <c r="M5" s="102"/>
-      <c r="N5" s="102"/>
-      <c r="O5" s="103"/>
+      <c r="C5" s="104"/>
+      <c r="D5" s="104"/>
+      <c r="E5" s="104"/>
+      <c r="F5" s="104"/>
+      <c r="G5" s="104"/>
+      <c r="H5" s="104"/>
+      <c r="I5" s="104"/>
+      <c r="J5" s="104"/>
+      <c r="K5" s="104"/>
+      <c r="L5" s="104"/>
+      <c r="M5" s="104"/>
+      <c r="N5" s="104"/>
+      <c r="O5" s="105"/>
     </row>
     <row r="6" spans="2:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="96" t="s">
+      <c r="B6" s="106" t="s">
         <v>59</v>
       </c>
-      <c r="C6" s="97"/>
-      <c r="D6" s="97"/>
-      <c r="E6" s="97"/>
-      <c r="F6" s="97"/>
-      <c r="G6" s="97"/>
-      <c r="H6" s="97"/>
-      <c r="I6" s="97"/>
-      <c r="J6" s="97"/>
-      <c r="K6" s="97"/>
-      <c r="L6" s="97"/>
-      <c r="M6" s="97"/>
-      <c r="N6" s="97"/>
-      <c r="O6" s="98"/>
+      <c r="C6" s="107"/>
+      <c r="D6" s="107"/>
+      <c r="E6" s="107"/>
+      <c r="F6" s="107"/>
+      <c r="G6" s="107"/>
+      <c r="H6" s="107"/>
+      <c r="I6" s="107"/>
+      <c r="J6" s="107"/>
+      <c r="K6" s="107"/>
+      <c r="L6" s="107"/>
+      <c r="M6" s="107"/>
+      <c r="N6" s="107"/>
+      <c r="O6" s="108"/>
     </row>
     <row r="7" spans="2:15" ht="145.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="107" t="s">
+      <c r="B7" s="112" t="s">
         <v>72</v>
       </c>
-      <c r="C7" s="108"/>
-      <c r="D7" s="108"/>
-      <c r="E7" s="108"/>
-      <c r="F7" s="108"/>
-      <c r="G7" s="108"/>
-      <c r="H7" s="108"/>
-      <c r="I7" s="108"/>
-      <c r="J7" s="108"/>
-      <c r="K7" s="108"/>
-      <c r="L7" s="108"/>
-      <c r="M7" s="108"/>
-      <c r="N7" s="108"/>
-      <c r="O7" s="109"/>
+      <c r="C7" s="113"/>
+      <c r="D7" s="113"/>
+      <c r="E7" s="113"/>
+      <c r="F7" s="113"/>
+      <c r="G7" s="113"/>
+      <c r="H7" s="113"/>
+      <c r="I7" s="113"/>
+      <c r="J7" s="113"/>
+      <c r="K7" s="113"/>
+      <c r="L7" s="113"/>
+      <c r="M7" s="113"/>
+      <c r="N7" s="113"/>
+      <c r="O7" s="114"/>
     </row>
     <row r="8" spans="2:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="96" t="s">
+      <c r="B8" s="106" t="s">
         <v>60</v>
       </c>
-      <c r="C8" s="97"/>
-      <c r="D8" s="97"/>
-      <c r="E8" s="97"/>
-      <c r="F8" s="97"/>
-      <c r="G8" s="97"/>
-      <c r="H8" s="97"/>
-      <c r="I8" s="97"/>
-      <c r="J8" s="97"/>
-      <c r="K8" s="97"/>
-      <c r="L8" s="97"/>
-      <c r="M8" s="97"/>
-      <c r="N8" s="97"/>
-      <c r="O8" s="98"/>
+      <c r="C8" s="107"/>
+      <c r="D8" s="107"/>
+      <c r="E8" s="107"/>
+      <c r="F8" s="107"/>
+      <c r="G8" s="107"/>
+      <c r="H8" s="107"/>
+      <c r="I8" s="107"/>
+      <c r="J8" s="107"/>
+      <c r="K8" s="107"/>
+      <c r="L8" s="107"/>
+      <c r="M8" s="107"/>
+      <c r="N8" s="107"/>
+      <c r="O8" s="108"/>
     </row>
     <row r="9" spans="2:15" ht="145.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="99" t="s">
+      <c r="B9" s="103" t="s">
         <v>61</v>
       </c>
-      <c r="C9" s="100"/>
-      <c r="D9" s="100"/>
-      <c r="E9" s="100"/>
-      <c r="F9" s="100"/>
-      <c r="G9" s="100"/>
-      <c r="H9" s="100"/>
-      <c r="I9" s="100"/>
-      <c r="J9" s="100"/>
-      <c r="K9" s="100"/>
-      <c r="L9" s="100"/>
-      <c r="M9" s="100"/>
-      <c r="N9" s="100"/>
-      <c r="O9" s="101"/>
+      <c r="C9" s="115"/>
+      <c r="D9" s="115"/>
+      <c r="E9" s="115"/>
+      <c r="F9" s="115"/>
+      <c r="G9" s="115"/>
+      <c r="H9" s="115"/>
+      <c r="I9" s="115"/>
+      <c r="J9" s="115"/>
+      <c r="K9" s="115"/>
+      <c r="L9" s="115"/>
+      <c r="M9" s="115"/>
+      <c r="N9" s="115"/>
+      <c r="O9" s="116"/>
     </row>
     <row r="10" spans="2:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="96" t="s">
+      <c r="B10" s="106" t="s">
         <v>62</v>
       </c>
-      <c r="C10" s="97"/>
-      <c r="D10" s="97"/>
-      <c r="E10" s="97"/>
-      <c r="F10" s="97"/>
-      <c r="G10" s="97"/>
-      <c r="H10" s="97"/>
-      <c r="I10" s="97"/>
-      <c r="J10" s="97"/>
-      <c r="K10" s="97"/>
-      <c r="L10" s="97"/>
-      <c r="M10" s="97"/>
-      <c r="N10" s="97"/>
-      <c r="O10" s="98"/>
+      <c r="C10" s="107"/>
+      <c r="D10" s="107"/>
+      <c r="E10" s="107"/>
+      <c r="F10" s="107"/>
+      <c r="G10" s="107"/>
+      <c r="H10" s="107"/>
+      <c r="I10" s="107"/>
+      <c r="J10" s="107"/>
+      <c r="K10" s="107"/>
+      <c r="L10" s="107"/>
+      <c r="M10" s="107"/>
+      <c r="N10" s="107"/>
+      <c r="O10" s="108"/>
     </row>
     <row r="11" spans="2:15" ht="145.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="99" t="s">
+      <c r="B11" s="103" t="s">
         <v>71</v>
       </c>
-      <c r="C11" s="102"/>
-      <c r="D11" s="102"/>
-      <c r="E11" s="102"/>
-      <c r="F11" s="102"/>
-      <c r="G11" s="102"/>
-      <c r="H11" s="102"/>
-      <c r="I11" s="102"/>
-      <c r="J11" s="102"/>
-      <c r="K11" s="102"/>
-      <c r="L11" s="102"/>
-      <c r="M11" s="102"/>
-      <c r="N11" s="102"/>
-      <c r="O11" s="103"/>
+      <c r="C11" s="104"/>
+      <c r="D11" s="104"/>
+      <c r="E11" s="104"/>
+      <c r="F11" s="104"/>
+      <c r="G11" s="104"/>
+      <c r="H11" s="104"/>
+      <c r="I11" s="104"/>
+      <c r="J11" s="104"/>
+      <c r="K11" s="104"/>
+      <c r="L11" s="104"/>
+      <c r="M11" s="104"/>
+      <c r="N11" s="104"/>
+      <c r="O11" s="105"/>
     </row>
     <row r="12" spans="2:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="96" t="s">
+      <c r="B12" s="106" t="s">
         <v>63</v>
       </c>
-      <c r="C12" s="97"/>
-      <c r="D12" s="97"/>
-      <c r="E12" s="97"/>
-      <c r="F12" s="97"/>
-      <c r="G12" s="97"/>
-      <c r="H12" s="97"/>
-      <c r="I12" s="97"/>
-      <c r="J12" s="97"/>
-      <c r="K12" s="97"/>
-      <c r="L12" s="97"/>
-      <c r="M12" s="97"/>
-      <c r="N12" s="97"/>
-      <c r="O12" s="98"/>
+      <c r="C12" s="107"/>
+      <c r="D12" s="107"/>
+      <c r="E12" s="107"/>
+      <c r="F12" s="107"/>
+      <c r="G12" s="107"/>
+      <c r="H12" s="107"/>
+      <c r="I12" s="107"/>
+      <c r="J12" s="107"/>
+      <c r="K12" s="107"/>
+      <c r="L12" s="107"/>
+      <c r="M12" s="107"/>
+      <c r="N12" s="107"/>
+      <c r="O12" s="108"/>
     </row>
     <row r="13" spans="2:15" ht="145.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="99" t="s">
+      <c r="B13" s="103" t="s">
         <v>64</v>
       </c>
-      <c r="C13" s="102"/>
-      <c r="D13" s="102"/>
-      <c r="E13" s="102"/>
-      <c r="F13" s="102"/>
-      <c r="G13" s="102"/>
-      <c r="H13" s="102"/>
-      <c r="I13" s="102"/>
-      <c r="J13" s="102"/>
-      <c r="K13" s="102"/>
-      <c r="L13" s="102"/>
-      <c r="M13" s="102"/>
-      <c r="N13" s="102"/>
-      <c r="O13" s="103"/>
+      <c r="C13" s="104"/>
+      <c r="D13" s="104"/>
+      <c r="E13" s="104"/>
+      <c r="F13" s="104"/>
+      <c r="G13" s="104"/>
+      <c r="H13" s="104"/>
+      <c r="I13" s="104"/>
+      <c r="J13" s="104"/>
+      <c r="K13" s="104"/>
+      <c r="L13" s="104"/>
+      <c r="M13" s="104"/>
+      <c r="N13" s="104"/>
+      <c r="O13" s="105"/>
     </row>
   </sheetData>
   <mergeCells count="12">
@@ -2832,7 +2830,7 @@
   <dimension ref="B1:N16"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="O4" sqref="O4"/>
+      <selection activeCell="N4" sqref="N4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2844,21 +2842,21 @@
   <sheetData>
     <row r="1" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:14" ht="21" x14ac:dyDescent="0.25">
-      <c r="B2" s="110" t="s">
-        <v>82</v>
-      </c>
-      <c r="C2" s="111"/>
-      <c r="D2" s="111"/>
-      <c r="E2" s="111"/>
-      <c r="F2" s="111"/>
-      <c r="G2" s="111"/>
-      <c r="H2" s="111"/>
-      <c r="I2" s="111"/>
-      <c r="J2" s="111"/>
-      <c r="K2" s="111"/>
-      <c r="L2" s="111"/>
-      <c r="M2" s="111"/>
-      <c r="N2" s="118"/>
+      <c r="B2" s="119" t="s">
+        <v>81</v>
+      </c>
+      <c r="C2" s="120"/>
+      <c r="D2" s="120"/>
+      <c r="E2" s="120"/>
+      <c r="F2" s="120"/>
+      <c r="G2" s="120"/>
+      <c r="H2" s="120"/>
+      <c r="I2" s="120"/>
+      <c r="J2" s="120"/>
+      <c r="K2" s="120"/>
+      <c r="L2" s="120"/>
+      <c r="M2" s="120"/>
+      <c r="N2" s="121"/>
     </row>
     <row r="3" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B3" s="43" t="s">
@@ -2883,7 +2881,7 @@
         <v>26</v>
       </c>
       <c r="I3" s="41" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="J3" s="41" t="s">
         <v>27</v>
@@ -2895,14 +2893,14 @@
         <v>29</v>
       </c>
       <c r="M3" s="41" t="s">
-        <v>89</v>
-      </c>
-      <c r="N3" s="119" t="s">
+        <v>87</v>
+      </c>
+      <c r="N3" s="45" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="4" spans="2:14" ht="45" x14ac:dyDescent="0.25">
-      <c r="B4" s="116" t="s">
+      <c r="B4" s="44" t="s">
         <v>42</v>
       </c>
       <c r="C4" s="38" t="s">
@@ -2932,26 +2930,26 @@
         <v>46</v>
       </c>
       <c r="M4" s="38" t="s">
+        <v>86</v>
+      </c>
+      <c r="N4" s="46" t="s">
         <v>88</v>
       </c>
-      <c r="N4" s="120" t="s">
-        <v>79</v>
-      </c>
     </row>
     <row r="5" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B5" s="127"/>
-      <c r="C5" s="112"/>
-      <c r="D5" s="112"/>
-      <c r="E5" s="112"/>
-      <c r="F5" s="112"/>
-      <c r="G5" s="112"/>
-      <c r="H5" s="112"/>
-      <c r="I5" s="112"/>
-      <c r="J5" s="112"/>
-      <c r="K5" s="112"/>
-      <c r="L5" s="112"/>
-      <c r="M5" s="112"/>
-      <c r="N5" s="128"/>
+      <c r="B5" s="122"/>
+      <c r="C5" s="117"/>
+      <c r="D5" s="117"/>
+      <c r="E5" s="117"/>
+      <c r="F5" s="117"/>
+      <c r="G5" s="117"/>
+      <c r="H5" s="117"/>
+      <c r="I5" s="117"/>
+      <c r="J5" s="117"/>
+      <c r="K5" s="117"/>
+      <c r="L5" s="117"/>
+      <c r="M5" s="117"/>
+      <c r="N5" s="123"/>
     </row>
     <row r="6" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B6" s="43" t="s">
@@ -2966,7 +2964,7 @@
       <c r="E6" s="41" t="s">
         <v>73</v>
       </c>
-      <c r="F6" s="112"/>
+      <c r="F6" s="117"/>
       <c r="G6" s="42" t="s">
         <v>67</v>
       </c>
@@ -2985,10 +2983,10 @@
       <c r="L6" s="42" t="s">
         <v>52</v>
       </c>
-      <c r="M6" s="126" t="s">
+      <c r="M6" s="128" t="s">
         <v>53</v>
       </c>
-      <c r="N6" s="125"/>
+      <c r="N6" s="129"/>
     </row>
     <row r="7" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B7" s="37" t="s">
@@ -2997,15 +2995,15 @@
       <c r="C7" s="38"/>
       <c r="D7" s="38"/>
       <c r="E7" s="38"/>
-      <c r="F7" s="112"/>
-      <c r="G7" s="121"/>
-      <c r="H7" s="122"/>
-      <c r="I7" s="122"/>
-      <c r="J7" s="122"/>
-      <c r="K7" s="122"/>
-      <c r="L7" s="122"/>
-      <c r="M7" s="117"/>
-      <c r="N7" s="114"/>
+      <c r="F7" s="117"/>
+      <c r="G7" s="47"/>
+      <c r="H7" s="48"/>
+      <c r="I7" s="48"/>
+      <c r="J7" s="48"/>
+      <c r="K7" s="48"/>
+      <c r="L7" s="48"/>
+      <c r="M7" s="124"/>
+      <c r="N7" s="125"/>
     </row>
     <row r="8" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B8" s="37" t="s">
@@ -3014,15 +3012,15 @@
       <c r="C8" s="38"/>
       <c r="D8" s="38"/>
       <c r="E8" s="38"/>
-      <c r="F8" s="112"/>
-      <c r="G8" s="121"/>
-      <c r="H8" s="122"/>
-      <c r="I8" s="122"/>
-      <c r="J8" s="122"/>
-      <c r="K8" s="122"/>
-      <c r="L8" s="122"/>
-      <c r="M8" s="117"/>
-      <c r="N8" s="114"/>
+      <c r="F8" s="117"/>
+      <c r="G8" s="47"/>
+      <c r="H8" s="48"/>
+      <c r="I8" s="48"/>
+      <c r="J8" s="48"/>
+      <c r="K8" s="48"/>
+      <c r="L8" s="48"/>
+      <c r="M8" s="124"/>
+      <c r="N8" s="125"/>
     </row>
     <row r="9" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B9" s="37" t="s">
@@ -3031,15 +3029,15 @@
       <c r="C9" s="38"/>
       <c r="D9" s="38"/>
       <c r="E9" s="38"/>
-      <c r="F9" s="112"/>
-      <c r="G9" s="121"/>
-      <c r="H9" s="122"/>
-      <c r="I9" s="122"/>
-      <c r="J9" s="122"/>
-      <c r="K9" s="122"/>
-      <c r="L9" s="122"/>
-      <c r="M9" s="117"/>
-      <c r="N9" s="114"/>
+      <c r="F9" s="117"/>
+      <c r="G9" s="47"/>
+      <c r="H9" s="48"/>
+      <c r="I9" s="48"/>
+      <c r="J9" s="48"/>
+      <c r="K9" s="48"/>
+      <c r="L9" s="48"/>
+      <c r="M9" s="124"/>
+      <c r="N9" s="125"/>
     </row>
     <row r="10" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B10" s="37" t="s">
@@ -3048,15 +3046,15 @@
       <c r="C10" s="38"/>
       <c r="D10" s="38"/>
       <c r="E10" s="38"/>
-      <c r="F10" s="112"/>
-      <c r="G10" s="121"/>
-      <c r="H10" s="122"/>
-      <c r="I10" s="122"/>
-      <c r="J10" s="122"/>
-      <c r="K10" s="122"/>
-      <c r="L10" s="122"/>
-      <c r="M10" s="117"/>
-      <c r="N10" s="114"/>
+      <c r="F10" s="117"/>
+      <c r="G10" s="47"/>
+      <c r="H10" s="48"/>
+      <c r="I10" s="48"/>
+      <c r="J10" s="48"/>
+      <c r="K10" s="48"/>
+      <c r="L10" s="48"/>
+      <c r="M10" s="124"/>
+      <c r="N10" s="125"/>
     </row>
     <row r="11" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B11" s="37" t="s">
@@ -3065,15 +3063,15 @@
       <c r="C11" s="38"/>
       <c r="D11" s="38"/>
       <c r="E11" s="38"/>
-      <c r="F11" s="112"/>
-      <c r="G11" s="121"/>
-      <c r="H11" s="122"/>
-      <c r="I11" s="122"/>
-      <c r="J11" s="122"/>
-      <c r="K11" s="122"/>
-      <c r="L11" s="122"/>
-      <c r="M11" s="117"/>
-      <c r="N11" s="114"/>
+      <c r="F11" s="117"/>
+      <c r="G11" s="47"/>
+      <c r="H11" s="48"/>
+      <c r="I11" s="48"/>
+      <c r="J11" s="48"/>
+      <c r="K11" s="48"/>
+      <c r="L11" s="48"/>
+      <c r="M11" s="124"/>
+      <c r="N11" s="125"/>
     </row>
     <row r="12" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B12" s="37" t="s">
@@ -3082,15 +3080,15 @@
       <c r="C12" s="38"/>
       <c r="D12" s="38"/>
       <c r="E12" s="38"/>
-      <c r="F12" s="112"/>
-      <c r="G12" s="121"/>
-      <c r="H12" s="122"/>
-      <c r="I12" s="122"/>
-      <c r="J12" s="122"/>
-      <c r="K12" s="122"/>
-      <c r="L12" s="122"/>
-      <c r="M12" s="117"/>
-      <c r="N12" s="114"/>
+      <c r="F12" s="117"/>
+      <c r="G12" s="47"/>
+      <c r="H12" s="48"/>
+      <c r="I12" s="48"/>
+      <c r="J12" s="48"/>
+      <c r="K12" s="48"/>
+      <c r="L12" s="48"/>
+      <c r="M12" s="124"/>
+      <c r="N12" s="125"/>
     </row>
     <row r="13" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B13" s="37" t="s">
@@ -3099,15 +3097,15 @@
       <c r="C13" s="38"/>
       <c r="D13" s="38"/>
       <c r="E13" s="38"/>
-      <c r="F13" s="112"/>
-      <c r="G13" s="121"/>
-      <c r="H13" s="122"/>
-      <c r="I13" s="122"/>
-      <c r="J13" s="122"/>
-      <c r="K13" s="122"/>
-      <c r="L13" s="122"/>
-      <c r="M13" s="117"/>
-      <c r="N13" s="114"/>
+      <c r="F13" s="117"/>
+      <c r="G13" s="47"/>
+      <c r="H13" s="48"/>
+      <c r="I13" s="48"/>
+      <c r="J13" s="48"/>
+      <c r="K13" s="48"/>
+      <c r="L13" s="48"/>
+      <c r="M13" s="124"/>
+      <c r="N13" s="125"/>
     </row>
     <row r="14" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B14" s="37" t="s">
@@ -3116,15 +3114,15 @@
       <c r="C14" s="38"/>
       <c r="D14" s="38"/>
       <c r="E14" s="38"/>
-      <c r="F14" s="112"/>
-      <c r="G14" s="121"/>
-      <c r="H14" s="122"/>
-      <c r="I14" s="122"/>
-      <c r="J14" s="122"/>
-      <c r="K14" s="122"/>
-      <c r="L14" s="122"/>
-      <c r="M14" s="117"/>
-      <c r="N14" s="114"/>
+      <c r="F14" s="117"/>
+      <c r="G14" s="47"/>
+      <c r="H14" s="48"/>
+      <c r="I14" s="48"/>
+      <c r="J14" s="48"/>
+      <c r="K14" s="48"/>
+      <c r="L14" s="48"/>
+      <c r="M14" s="124"/>
+      <c r="N14" s="125"/>
     </row>
     <row r="15" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B15" s="37" t="s">
@@ -3133,15 +3131,15 @@
       <c r="C15" s="38"/>
       <c r="D15" s="38"/>
       <c r="E15" s="38"/>
-      <c r="F15" s="112"/>
-      <c r="G15" s="121"/>
-      <c r="H15" s="122"/>
-      <c r="I15" s="122"/>
-      <c r="J15" s="122"/>
-      <c r="K15" s="122"/>
-      <c r="L15" s="122"/>
-      <c r="M15" s="117"/>
-      <c r="N15" s="114"/>
+      <c r="F15" s="117"/>
+      <c r="G15" s="47"/>
+      <c r="H15" s="48"/>
+      <c r="I15" s="48"/>
+      <c r="J15" s="48"/>
+      <c r="K15" s="48"/>
+      <c r="L15" s="48"/>
+      <c r="M15" s="124"/>
+      <c r="N15" s="125"/>
     </row>
     <row r="16" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B16" s="39" t="s">
@@ -3150,15 +3148,15 @@
       <c r="C16" s="40"/>
       <c r="D16" s="40"/>
       <c r="E16" s="40"/>
-      <c r="F16" s="113"/>
-      <c r="G16" s="123"/>
-      <c r="H16" s="124"/>
-      <c r="I16" s="124"/>
-      <c r="J16" s="124"/>
-      <c r="K16" s="124"/>
-      <c r="L16" s="124"/>
-      <c r="M16" s="129"/>
-      <c r="N16" s="115"/>
+      <c r="F16" s="118"/>
+      <c r="G16" s="49"/>
+      <c r="H16" s="50"/>
+      <c r="I16" s="50"/>
+      <c r="J16" s="50"/>
+      <c r="K16" s="50"/>
+      <c r="L16" s="50"/>
+      <c r="M16" s="126"/>
+      <c r="N16" s="127"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -3169,16 +3167,16 @@
     <mergeCell ref="M6:N6"/>
   </mergeCells>
   <conditionalFormatting sqref="H7:H16">
-    <cfRule type="cellIs" dxfId="11" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="5" operator="equal">
       <formula>"Exempted"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="6" operator="equal">
       <formula>"Blocked"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="7" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="8" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3216,17 +3214,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="707a28fc-a441-4771-bad6-d4811d674bdd" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="4b384af1-0457-4742-9b9e-f0ee968b1deb">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -3235,7 +3222,7 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100D1CC9081F356EC4CA6AE8DF3D0A0E719" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="cf9aa0df8bab80374253d35ffc06f59d">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="707a28fc-a441-4771-bad6-d4811d674bdd" xmlns:ns3="4b384af1-0457-4742-9b9e-f0ee968b1deb" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="fc9de07067b2dfacc284a6c4e13701a4" ns2:_="" ns3:_="">
     <xsd:import namespace="707a28fc-a441-4771-bad6-d4811d674bdd"/>
@@ -3464,24 +3451,18 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2DE8F9E8-73F7-4A60-B036-56236EA63C6F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="707a28fc-a441-4771-bad6-d4811d674bdd"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="4b384af1-0457-4742-9b9e-f0ee968b1deb"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="707a28fc-a441-4771-bad6-d4811d674bdd" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="4b384af1-0457-4742-9b9e-f0ee968b1deb">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7C46EB9C-3030-4693-8FD5-9EEAF505795D}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
@@ -3489,7 +3470,7 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B2174166-A103-4A34-816F-6C67D89BD17E}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3506,4 +3487,21 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2DE8F9E8-73F7-4A60-B036-56236EA63C6F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="707a28fc-a441-4771-bad6-d4811d674bdd"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="4b384af1-0457-4742-9b9e-f0ee968b1deb"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>